--- a/biology/Zoologie/Catoblepia_amphirhoe/Catoblepia_amphirhoe.xlsx
+++ b/biology/Zoologie/Catoblepia_amphirhoe/Catoblepia_amphirhoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catoblepia amphirhoe est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Morphinae et du genre Catoblepia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Catoblepia amphirhoe a été décrit par Jakob Hübner en 1825 sous le nom initial de Brassicolis amphirhoe.
-Synonyme : Opsiphanes amphirhoe ; Godman &amp; Salvin [1881][1].
-Nom vernaculaire
-Catoblepia amphirhoe se nomme Amphirhoe Owlet en anglais.
+Synonyme : Opsiphanes amphirhoe ; Godman &amp; Salvin .
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Catoblepia amphirhoe est un papillon aux ailes antérieures à bord externe concave. Le dessus des ailes est de couleur marron avec aux ailes antérieures une bande orange à bords festonnés, qui va du tiers du bord costal à l'angle externe. Les ailes postérieures sont marron foncé.
-Le revers est marbré de rose cuivré et de beige nacré avec un ocelle noir à l'apex des ailes antérieures et deux très gros ocelles aux ailes postérieures, l'un beige nacré, l'autre rose cuivré.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia amphirhoe se nomme Amphirhoe Owlet en anglais.
 </t>
         </is>
       </c>
@@ -574,13 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est Arecastrum romanzoffianum[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia amphirhoe est un papillon aux ailes antérieures à bord externe concave. Le dessus des ailes est de couleur marron avec aux ailes antérieures une bande orange à bords festonnés, qui va du tiers du bord costal à l'angle externe. Les ailes postérieures sont marron foncé.
+Le revers est marbré de rose cuivré et de beige nacré avec un ocelle noir à l'apex des ailes antérieures et deux très gros ocelles aux ailes postérieures, l'un beige nacré, l'autre rose cuivré.
 </t>
         </is>
       </c>
@@ -606,15 +625,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Arecastrum romanzoffianum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catoblepia_amphirhoe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_amphirhoe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catoblepia amphirhoe est présent au Brésil[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia amphirhoe est présent au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catoblepia_amphirhoe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_amphirhoe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
